--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2471507.109805455</v>
+        <v>2469255.030094247</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>92.72329049755604</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>222.2943037901854</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,13 +713,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>164.6542993721355</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.2317318494241</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.3296738389808</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>129.5398680316074</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>134.631133566647</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>143.0812453977549</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091488</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777578</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>203.6597537114139</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>28.75188085812005</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887034</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136.1078891636986</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1528.069587875905</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1159.107070935493</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1159.107070935493</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1159.107070935493</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>748.1211661458854</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>333.0487159908818</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176918</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915838</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1914.669427940026</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1671.146616732753</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1671.146616732753</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1671.146616732753</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.462128526866</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1127.044958489905</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>1127.044958489905</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4571,10 +4571,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.017852261501</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>669.4690763615333</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>500.5328934336264</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>350.4162540212907</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672847</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>1417.78865577483</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>851.1175411917731</v>
       </c>
     </row>
     <row r="8">
@@ -4790,7 +4790,7 @@
         <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,19 +4829,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
         <v>2420.282606282261</v>
@@ -4881,13 +4881,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1409.980552474725</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1155.296064268838</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,16 +5176,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.0193492433381</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
         <v>407.9027098310023</v>
@@ -6373,13 +6373,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703064</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,46 +6686,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6783,22 +6783,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349511</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>119.8635921600923</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788761</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.72409101823865</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>799776.7579630145</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184277</v>
@@ -26451,7 +26451,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
@@ -26522,46 +26522,46 @@
         <v>-893165.15752736</v>
       </c>
       <c r="C6" t="n">
-        <v>435579.5882002322</v>
+        <v>435579.588200232</v>
       </c>
       <c r="D6" t="n">
-        <v>435579.588200232</v>
+        <v>435579.5882002327</v>
       </c>
       <c r="E6" t="n">
-        <v>185396.8150166499</v>
+        <v>185362.0770912138</v>
       </c>
       <c r="F6" t="n">
-        <v>510809.276824005</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="G6" t="n">
-        <v>510809.2768240048</v>
+        <v>510774.5388985689</v>
       </c>
       <c r="H6" t="n">
-        <v>510809.2768240048</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="I6" t="n">
-        <v>510809.2768240049</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="J6" t="n">
-        <v>293278.0744267274</v>
+        <v>293243.336501292</v>
       </c>
       <c r="K6" t="n">
-        <v>510809.2768240049</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="L6" t="n">
-        <v>510809.2768240051</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="M6" t="n">
-        <v>425754.2488884931</v>
+        <v>425719.5109630574</v>
       </c>
       <c r="N6" t="n">
-        <v>510809.276824005</v>
+        <v>510774.5388985691</v>
       </c>
       <c r="O6" t="n">
-        <v>510809.2768240051</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="P6" t="n">
-        <v>510809.2768240051</v>
+        <v>510774.5388985692</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272.5496012734515</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>72.31346059713502</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>25.11472595930638</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>27.98010635618874</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>273.4041678244998</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>256.6980706244461</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.12388134767377</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>75.50340795433993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047134</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>82.55208449419902</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936921</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31993,7 +31993,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,28 +32549,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>290.6810969936921</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,10 +33503,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760385</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>519.7862086120942</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103587</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,28 +36197,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010406</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37151,10 +37151,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>406.830144396991</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
-        <v>406.830144396991</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>388.4444965287609</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
